--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.03419985374377</v>
+        <v>96.1923116129142</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.98266134626499</v>
+        <v>131.6145644540171</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.49028103534846</v>
+        <v>119.0534551447621</v>
       </c>
       <c r="AD2" t="n">
-        <v>65034.19985374377</v>
+        <v>96192.3116129142</v>
       </c>
       <c r="AE2" t="n">
-        <v>88982.66134626498</v>
+        <v>131614.5644540171</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.163588244020739e-06</v>
+        <v>7.038752507948602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80490.28103534845</v>
+        <v>119053.4551447621</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.69906700046084</v>
+        <v>95.8571787596313</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.52411779138551</v>
+        <v>131.1560208991376</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.07550023377661</v>
+        <v>118.6386743431903</v>
       </c>
       <c r="AD3" t="n">
-        <v>64699.06700046085</v>
+        <v>95857.17875963129</v>
       </c>
       <c r="AE3" t="n">
-        <v>88524.11779138551</v>
+        <v>131156.0208991376</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.210738090990482e-06</v>
+        <v>7.11846166364724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>80075.50023377661</v>
+        <v>118638.6743431903</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.88857576656951</v>
+        <v>93.07493844357788</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.04692381194054</v>
+        <v>127.3492369549353</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.83472617096551</v>
+        <v>115.1952045157666</v>
       </c>
       <c r="AD2" t="n">
-        <v>62888.57576656951</v>
+        <v>93074.93844357788</v>
       </c>
       <c r="AE2" t="n">
-        <v>86046.92381194055</v>
+        <v>127349.2369549353</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.316590907314362e-06</v>
+        <v>7.475433316270305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>77834.72617096551</v>
+        <v>115195.2045157666</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.07354401121751</v>
+        <v>84.30436474519904</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.40473787514794</v>
+        <v>115.348951090416</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.77663657621224</v>
+        <v>104.3402090916462</v>
       </c>
       <c r="AD2" t="n">
-        <v>66073.54401121751</v>
+        <v>84304.36474519904</v>
       </c>
       <c r="AE2" t="n">
-        <v>90404.73787514794</v>
+        <v>115348.951090416</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.594668588402853e-06</v>
+        <v>8.694101694703141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.086805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>81776.63657621224</v>
+        <v>104340.2090916462</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.75213338679215</v>
+        <v>87.15668486913752</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.38726086097347</v>
+        <v>119.2516213194695</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.71521350865009</v>
+        <v>107.8704139514722</v>
       </c>
       <c r="AD2" t="n">
-        <v>58752.13338679214</v>
+        <v>87156.68486913752</v>
       </c>
       <c r="AE2" t="n">
-        <v>80387.26086097347</v>
+        <v>119251.6213194695</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6020168956748e-06</v>
+        <v>8.383875341912272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>72715.21350865009</v>
+        <v>107870.4139514722</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.60550247644021</v>
+        <v>90.84286017704962</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.39609868184506</v>
+        <v>124.2952089983296</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.95969908837473</v>
+        <v>112.4326487009832</v>
       </c>
       <c r="AD2" t="n">
-        <v>64605.50247644021</v>
+        <v>90842.86017704962</v>
       </c>
       <c r="AE2" t="n">
-        <v>88396.09868184506</v>
+        <v>124295.2089983296</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.452237937062364e-06</v>
+        <v>8.724951843496737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.460069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>79959.69908837473</v>
+        <v>112432.6487009832</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.40004708880944</v>
+        <v>93.84182570428565</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.74674143955107</v>
+        <v>128.3985259377133</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.46775418639731</v>
+        <v>116.1443508307149</v>
       </c>
       <c r="AD2" t="n">
-        <v>63400.04708880944</v>
+        <v>93841.82570428566</v>
       </c>
       <c r="AE2" t="n">
-        <v>86746.74143955107</v>
+        <v>128398.5259377133</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.293369493556352e-06</v>
+        <v>7.386661529612929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>78467.75418639732</v>
+        <v>116144.3508307149</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.01990759948151</v>
+        <v>89.87233404824498</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.59486193656792</v>
+        <v>122.9672923323088</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.23493125352374</v>
+        <v>111.2314665378242</v>
       </c>
       <c r="AD2" t="n">
-        <v>64019.90759948151</v>
+        <v>89872.33404824499</v>
       </c>
       <c r="AE2" t="n">
-        <v>87594.86193656792</v>
+        <v>122967.2923323088</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.281415941035635e-06</v>
+        <v>8.582784892763988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79234.93125352374</v>
+        <v>111231.4665378242</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.75538558310944</v>
+        <v>90.11279996148228</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.12819889322299</v>
+        <v>123.2963084034073</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.19456026203326</v>
+        <v>111.5290817768741</v>
       </c>
       <c r="AD2" t="n">
-        <v>60755.38558310944</v>
+        <v>90112.79996148228</v>
       </c>
       <c r="AE2" t="n">
-        <v>83128.19889322299</v>
+        <v>123296.3084034073</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.49427214072558e-06</v>
+        <v>7.95968991665496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>75194.56026203326</v>
+        <v>111529.0817768741</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.13533179786426</v>
+        <v>92.05656602476915</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.01630218317996</v>
+        <v>125.9558548841016</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.90246562396695</v>
+        <v>113.9348048741488</v>
       </c>
       <c r="AD2" t="n">
-        <v>62135.33179786426</v>
+        <v>92056.56602476916</v>
       </c>
       <c r="AE2" t="n">
-        <v>85016.30218317996</v>
+        <v>125955.8548841016</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.38545320288078e-06</v>
+        <v>7.647847451539654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.826388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>76902.46562396694</v>
+        <v>113934.8048741488</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.81693592415303</v>
+        <v>95.74387104112907</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.68539125279098</v>
+        <v>131.0009882798992</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.22138198237433</v>
+        <v>118.4984378195423</v>
       </c>
       <c r="AD2" t="n">
-        <v>64816.93592415303</v>
+        <v>95743.87104112907</v>
       </c>
       <c r="AE2" t="n">
-        <v>88685.39125279099</v>
+        <v>131000.9882798992</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.157933110215517e-06</v>
+        <v>7.06821071461669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.913194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>80221.38198237433</v>
+        <v>118498.4378195423</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.86031226930636</v>
+        <v>95.7872473862824</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.74474068185903</v>
+        <v>131.0603377089672</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.27506718522957</v>
+        <v>118.5521230223975</v>
       </c>
       <c r="AD3" t="n">
-        <v>64860.31226930636</v>
+        <v>95787.2473862824</v>
       </c>
       <c r="AE3" t="n">
-        <v>88744.74068185902</v>
+        <v>131060.3377089672</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.174732174512513e-06</v>
+        <v>7.096768010540436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80275.06718522958</v>
+        <v>118552.1230223975</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.43081360419103</v>
+        <v>88.169911833081</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.31586107567622</v>
+        <v>120.6379631519552</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.5551894221605</v>
+        <v>109.1244452652088</v>
       </c>
       <c r="AD2" t="n">
-        <v>59430.81360419103</v>
+        <v>88169.911833081</v>
       </c>
       <c r="AE2" t="n">
-        <v>81315.86107567622</v>
+        <v>120637.9631519552</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.569340079953521e-06</v>
+        <v>8.239601452529833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>73555.18942216049</v>
+        <v>109124.4452652088</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.50973848774319</v>
+        <v>85.17955913159992</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.68736134950093</v>
+        <v>116.5464306607404</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.17755002072799</v>
+        <v>105.4234028924523</v>
       </c>
       <c r="AD2" t="n">
-        <v>57509.73848774319</v>
+        <v>85179.55913159992</v>
       </c>
       <c r="AE2" t="n">
-        <v>78687.36134950093</v>
+        <v>116546.4306607404</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6100902489735e-06</v>
+        <v>8.600954822715448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.991319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>71177.550020728</v>
+        <v>105423.4028924523</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.31076577754479</v>
+        <v>83.24450057908099</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.3610710444368</v>
+        <v>113.898798180427</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.83257584302822</v>
+        <v>103.0284567400837</v>
       </c>
       <c r="AD2" t="n">
-        <v>65310.76577754479</v>
+        <v>83244.500579081</v>
       </c>
       <c r="AE2" t="n">
-        <v>89361.0710444368</v>
+        <v>113898.798180427</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546896807183703e-06</v>
+        <v>8.743851175551966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>80832.57584302823</v>
+        <v>103028.4567400837</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.3862817195412</v>
+        <v>97.50723062382819</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.04210410600436</v>
+        <v>133.4136946548813</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.5896646966181</v>
+        <v>120.6808788843515</v>
       </c>
       <c r="AD2" t="n">
-        <v>72386.28171954121</v>
+        <v>97507.23062382819</v>
       </c>
       <c r="AE2" t="n">
-        <v>99042.10410600436</v>
+        <v>133413.6946548813</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939144751398625e-06</v>
+        <v>8.124877290984413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>89589.6646966181</v>
+        <v>120680.8788843515</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.53030448137924</v>
+        <v>91.17564153736937</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.1884771168442</v>
+        <v>124.7505351367963</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.15364702010223</v>
+        <v>112.844519151849</v>
       </c>
       <c r="AD2" t="n">
-        <v>61530.30448137924</v>
+        <v>91175.64153736937</v>
       </c>
       <c r="AE2" t="n">
-        <v>84188.47711684419</v>
+        <v>124750.5351367963</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421502224888623e-06</v>
+        <v>7.768404990701166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>76153.64702010223</v>
+        <v>112844.519151849</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.02947385935805</v>
+        <v>94.7178533220327</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.6079509153646</v>
+        <v>129.5971455719251</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.24677103855456</v>
+        <v>117.2285758893111</v>
       </c>
       <c r="AD2" t="n">
-        <v>64029.47385935805</v>
+        <v>94717.85332203269</v>
       </c>
       <c r="AE2" t="n">
-        <v>87607.95091536459</v>
+        <v>129597.1455719251</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243120905016423e-06</v>
+        <v>7.25526388401994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>79246.77103855455</v>
+        <v>117228.5758893111</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.41779747249672</v>
+        <v>121.8842599934647</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.3453753366319</v>
+        <v>166.7674216770365</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6689044273486</v>
+        <v>150.8513730117726</v>
       </c>
       <c r="AD2" t="n">
-        <v>89417.79747249672</v>
+        <v>121884.2599934647</v>
       </c>
       <c r="AE2" t="n">
-        <v>122345.3753366319</v>
+        <v>166767.4216770364</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.304859627622694e-06</v>
+        <v>7.083836368816246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.003472222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>110668.9044273485</v>
+        <v>150851.3730117726</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.17323808468356</v>
+        <v>86.22262915534974</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.59519076957065</v>
+        <v>117.9736050842359</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.99873747509314</v>
+        <v>106.7143697920218</v>
       </c>
       <c r="AD2" t="n">
-        <v>58173.23808468356</v>
+        <v>86222.62915534974</v>
       </c>
       <c r="AE2" t="n">
-        <v>79595.19076957065</v>
+        <v>117973.6050842359</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.609468424528876e-06</v>
+        <v>8.492634594886703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>71998.73747509313</v>
+        <v>106714.3697920218</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.18346342987861</v>
+        <v>89.23941529801371</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.34566977174831</v>
+        <v>122.1013049758382</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.48671462162537</v>
+        <v>110.448127799234</v>
       </c>
       <c r="AD2" t="n">
-        <v>60183.46342987861</v>
+        <v>89239.41529801372</v>
       </c>
       <c r="AE2" t="n">
-        <v>82345.6697717483</v>
+        <v>122101.3049758382</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.5140258426356e-06</v>
+        <v>8.063977742024035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>74486.71462162536</v>
+        <v>110448.127799234</v>
       </c>
     </row>
   </sheetData>
